--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3330.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3330.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8952242940333341</v>
+        <v>2.199171543121338</v>
       </c>
       <c r="B1">
-        <v>1.50601948904764</v>
+        <v>4.499747753143311</v>
       </c>
       <c r="C1">
-        <v>5.144325631604382</v>
+        <v>3.362667322158813</v>
       </c>
       <c r="D1">
-        <v>4.831403865300644</v>
+        <v>0.8964079618453979</v>
       </c>
       <c r="E1">
-        <v>1.627256997204735</v>
+        <v>0.4716604351997375</v>
       </c>
     </row>
   </sheetData>
